--- a/Documents/SalesDB.xlsx
+++ b/Documents/SalesDB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="264"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="75">
   <si>
     <t>Comments</t>
   </si>
@@ -81,9 +81,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>max repeats</t>
-  </si>
-  <si>
     <t>SalesOffType.TypeID</t>
   </si>
   <si>
@@ -102,15 +99,9 @@
     <t>positive</t>
   </si>
   <si>
-    <t>-1 disable, positive</t>
-  </si>
-  <si>
     <t>varchar</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -120,18 +111,6 @@
     <t>SalesUser</t>
   </si>
   <si>
-    <t>pluno / kind</t>
-  </si>
-  <si>
-    <t>isAllReq</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>is every req needed</t>
-  </si>
-  <si>
     <t>Vipno</t>
   </si>
   <si>
@@ -144,136 +123,124 @@
     <t>plu or kind</t>
   </si>
   <si>
-    <t>plu.pluno / kind3</t>
-  </si>
-  <si>
-    <t>Plu.pluno / kind3</t>
-  </si>
-  <si>
-    <t>isVip</t>
-  </si>
-  <si>
     <t>vip or group</t>
   </si>
   <si>
     <t>vip.vipno / vipCard</t>
   </si>
   <si>
-    <t>module SalesEngine</t>
-  </si>
-  <si>
-    <t>class Sale</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>IsActive</t>
-  </si>
-  <si>
-    <t>DiscountAmount</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>IsPluInActiveSale</t>
-  </si>
-  <si>
-    <t>AddItem</t>
-  </si>
-  <si>
-    <t>ResetSaleInformation</t>
-  </si>
-  <si>
-    <t>GetCalculatedSales</t>
-  </si>
-  <si>
-    <t>Sale[]</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>pluno</t>
-  </si>
-  <si>
-    <t>class SaleProduct</t>
-  </si>
-  <si>
-    <t>Sale or null</t>
-  </si>
-  <si>
-    <t>isActive</t>
-  </si>
-  <si>
-    <t>AvailableSales</t>
-  </si>
-  <si>
-    <t>ActivatedSales</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>SaleProduct[]</t>
-  </si>
-  <si>
-    <t>ProductsInCart</t>
-  </si>
-  <si>
-    <t>pluno, kind3, qty</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
-    <t>prodGroup</t>
-  </si>
-  <si>
-    <t>מחלקות למימוש פנימי</t>
-  </si>
-  <si>
     <t>טבלאות במסד</t>
   </si>
   <si>
     <t>AllowMultiple</t>
   </si>
   <si>
-    <t>default 1</t>
-  </si>
-  <si>
     <t>isPluno</t>
   </si>
   <si>
-    <t>known-issue</t>
-  </si>
-  <si>
-    <t>1. מוצר הנמצא בשני מבצעים, גם אם באחד הוא בדרישות ובשני הוא בהנחות</t>
-  </si>
-  <si>
-    <t>2. אם יש מוצר בשני מבצעים - איך לתעדף אותם? את מי לבדוק קודם? מה אם שניהם תקפים?</t>
-  </si>
-  <si>
-    <t>MultiDiscount</t>
-  </si>
-  <si>
-    <t>&gt;= 0</t>
-  </si>
-  <si>
     <t>Empno</t>
   </si>
   <si>
-    <t>Emp.empno</t>
-  </si>
-  <si>
-    <t>inserting user</t>
-  </si>
-  <si>
     <t>1 - nothing, 2 - percentage, 3 - fix price, 4 - fix discount</t>
   </si>
   <si>
     <t>Branch.bhno</t>
+  </si>
+  <si>
+    <t>pluID</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>SaleGroupID</t>
+  </si>
+  <si>
+    <t>SalesGroup.GroupID</t>
+  </si>
+  <si>
+    <t>GroupIndex</t>
+  </si>
+  <si>
+    <t>index inside the group</t>
+  </si>
+  <si>
+    <t>SaleType</t>
+  </si>
+  <si>
+    <t>SalesTypes.TypeID</t>
+  </si>
+  <si>
+    <t>MaxTotalPrice</t>
+  </si>
+  <si>
+    <t>can be NULL</t>
+  </si>
+  <si>
+    <t>0 - unlimited</t>
+  </si>
+  <si>
+    <t>Recurrences</t>
+  </si>
+  <si>
+    <t>OutID</t>
+  </si>
+  <si>
+    <t>Plu.pluno / Kind3.kind</t>
+  </si>
+  <si>
+    <t>plu.pluno / Kind3.Kind</t>
+  </si>
+  <si>
+    <t>MultiUnits</t>
+  </si>
+  <si>
+    <t>0 - for each unit</t>
+  </si>
+  <si>
+    <t>MaxRec</t>
+  </si>
+  <si>
+    <t>PluGiftedSale</t>
+  </si>
+  <si>
+    <t>PluOutSale.OutID</t>
+  </si>
+  <si>
+    <t>SalesGroup</t>
+  </si>
+  <si>
+    <t>GroupID</t>
+  </si>
+  <si>
+    <t>DateCreated</t>
+  </si>
+  <si>
+    <t>isEnabled</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>creation time</t>
+  </si>
+  <si>
+    <t>isVipno</t>
+  </si>
+  <si>
+    <t>SaleTypes</t>
+  </si>
+  <si>
+    <t>1 - Target Price, 2 - Discounted Product, 3 - Buy &amp; Gete, 4 - Bundle Sale</t>
   </si>
 </sst>
 </file>
@@ -305,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -446,11 +413,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -506,9 +504,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -517,6 +512,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -530,15 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -548,8 +543,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,6 +576,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -608,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,7 +662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,63 +871,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J51"/>
+  <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
     <col min="7" max="10" width="21.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="14" width="21.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D2" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="H2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="E5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="27" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="G5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>14</v>
@@ -917,16 +943,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>20</v>
@@ -935,78 +965,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="4:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="E12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>
@@ -1015,173 +1081,209 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="6" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="18"/>
+      <c r="G18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G17" s="12" t="s">
+      <c r="G20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="E18" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
+      <c r="E23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G23" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
@@ -1190,97 +1292,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="13" t="s">
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="I25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="5"/>
+      <c r="J25" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="I26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G28" s="6" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="13" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G29" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="13" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="D30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>20</v>
@@ -1289,24 +1413,48 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G32" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
+    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>76</v>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>14</v>
@@ -1316,247 +1464,159 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="6"/>
-      <c r="H34" s="5" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G35" s="6"/>
-      <c r="H35" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="13" t="s">
+      <c r="B36" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="G36" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="13" t="s">
+      <c r="G39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="G41" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="G42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="G43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="15" t="s">
+      <c r="G41" s="6"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G45" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="32"/>
-    </row>
-    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G47" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
-    </row>
-    <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G49" s="6"/>
-      <c r="H49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G50" s="6"/>
-      <c r="H50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G51" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>44</v>
-      </c>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G42" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="G47:J47"/>
+  <mergeCells count="12">
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G45:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/SalesDB.xlsx
+++ b/Documents/SalesDB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="264"/>
@@ -11,12 +11,12 @@
     <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
     <sheet name="גיליון3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="75">
   <si>
     <t>Comments</t>
   </si>
@@ -251,7 +251,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +259,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -513,6 +513,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -522,50 +540,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -627,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,7 +662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,51 +873,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="2" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="21.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="14" width="21.375" style="1" customWidth="1"/>
+    <col min="12" max="14" width="21.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E2" s="25" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="G5" s="22" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="6"/>
@@ -965,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
         <v>49</v>
@@ -987,7 +987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>51</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="19"/>
       <c r="D12" s="16" t="s">
@@ -1051,14 +1051,14 @@
       <c r="E12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>55</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="19"/>
       <c r="D14" s="13" t="s">
@@ -1090,17 +1090,17 @@
       <c r="E14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="24" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="13" t="s">
         <v>21</v>
@@ -1122,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>56</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>56</v>
       </c>
@@ -1179,22 +1179,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
       <c r="G19" s="6"/>
       <c r="I19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
@@ -1248,11 +1248,11 @@
       <c r="D22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>71</v>
       </c>
@@ -1263,14 +1263,14 @@
       <c r="E23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="20" t="s">
@@ -1297,24 +1297,24 @@
       <c r="C25" s="5"/>
       <c r="D25" s="13"/>
       <c r="E25" s="5"/>
-      <c r="G25" s="36"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
       <c r="G26" s="6"/>
       <c r="H26" s="5" t="s">
         <v>60</v>
@@ -1322,11 +1322,11 @@
       <c r="I26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1346,11 +1346,11 @@
       <c r="I27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="5" t="s">
         <v>49</v>
@@ -1372,7 +1372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="5" t="s">
         <v>43</v>
@@ -1394,7 +1394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="D30" s="13" t="s">
         <v>46</v>
@@ -1413,7 +1413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="13" t="s">
@@ -1423,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>55</v>
       </c>
@@ -1434,15 +1434,17 @@
       <c r="E32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="13" t="s">
         <v>29</v>
@@ -1463,8 +1465,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
         <v>29</v>
@@ -1483,7 +1487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="6"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
@@ -1493,21 +1497,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="22" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="G36" s="29" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="G36" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="5" t="s">
         <v>49</v>
@@ -1532,12 +1536,12 @@
       <c r="E38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
@@ -1563,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>35</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G41" s="6"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5" t="s">
@@ -1595,28 +1599,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G42" s="29" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G32:J32"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G32:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1629,7 +1633,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1641,7 +1645,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
